--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Calr-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Calr-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H2">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I2">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J2">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.582021999999999</v>
+        <v>15.025588</v>
       </c>
       <c r="N2">
-        <v>22.746066</v>
+        <v>45.076764</v>
       </c>
       <c r="O2">
-        <v>0.6904803268470485</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P2">
-        <v>0.6904803268470484</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q2">
-        <v>351.1069302307653</v>
+        <v>1785.307500190514</v>
       </c>
       <c r="R2">
-        <v>3159.962372076888</v>
+        <v>16067.76750171463</v>
       </c>
       <c r="S2">
-        <v>0.03842243346335846</v>
+        <v>0.07004326023457978</v>
       </c>
       <c r="T2">
-        <v>0.03842243346335845</v>
+        <v>0.0700432602345798</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H3">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I3">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J3">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.52837</v>
       </c>
       <c r="O3">
-        <v>0.01603921708027116</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P3">
-        <v>0.01603921708027115</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q3">
-        <v>8.155888087462221</v>
+        <v>20.92658922622889</v>
       </c>
       <c r="R3">
-        <v>73.40299278715999</v>
+        <v>188.33930303606</v>
       </c>
       <c r="S3">
-        <v>0.0008925174651755037</v>
+        <v>0.0008210162870197365</v>
       </c>
       <c r="T3">
-        <v>0.0008925174651755035</v>
+        <v>0.0008210162870197366</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H4">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I4">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J4">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.025778</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N4">
-        <v>9.077334</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O4">
-        <v>0.2755518491514017</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P4">
-        <v>0.2755518491514016</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q4">
-        <v>140.1171910527013</v>
+        <v>3.391218797256889</v>
       </c>
       <c r="R4">
-        <v>1261.054719474312</v>
+        <v>30.520969175312</v>
       </c>
       <c r="S4">
-        <v>0.01533334430840399</v>
+        <v>0.0001330482399829247</v>
       </c>
       <c r="T4">
-        <v>0.01533334430840399</v>
+        <v>0.0001330482399829247</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H5">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I5">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J5">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.116695</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N5">
-        <v>0.350085</v>
+        <v>19.037629</v>
       </c>
       <c r="O5">
-        <v>0.01062719176248979</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P5">
-        <v>0.01062719176248978</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q5">
-        <v>5.403891366086667</v>
+        <v>754.0031453798337</v>
       </c>
       <c r="R5">
-        <v>48.63502229478</v>
+        <v>6786.028308418503</v>
       </c>
       <c r="S5">
-        <v>0.0005913601771409549</v>
+        <v>0.02958192833665662</v>
       </c>
       <c r="T5">
-        <v>0.0005913601771409547</v>
+        <v>0.02958192833665663</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H6">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I6">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J6">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,33 +809,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.08017533333333333</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N6">
-        <v>0.240526</v>
+        <v>0.458717</v>
       </c>
       <c r="O6">
-        <v>0.007301415158788918</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P6">
-        <v>0.007301415158788916</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q6">
-        <v>3.712745118240888</v>
+        <v>18.16791685767178</v>
       </c>
       <c r="R6">
-        <v>33.41470606416799</v>
+        <v>163.511251719046</v>
       </c>
       <c r="S6">
-        <v>0.0004062941798906131</v>
+        <v>0.0007127848442054478</v>
       </c>
       <c r="T6">
-        <v>0.000406294179890613</v>
+        <v>0.0007127848442054479</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>335.81602</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H7">
-        <v>1007.44806</v>
+        <v>356.453438</v>
       </c>
       <c r="I7">
-        <v>0.4035344407418795</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J7">
-        <v>0.4035344407418795</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>7.582021999999999</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N7">
-        <v>22.746066</v>
+        <v>0.256512</v>
       </c>
       <c r="O7">
-        <v>0.6904803268470485</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P7">
-        <v>0.6904803268470484</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q7">
-        <v>2546.16445159244</v>
+        <v>10.15939825425067</v>
       </c>
       <c r="R7">
-        <v>22915.48006433196</v>
+        <v>91.434584288256</v>
       </c>
       <c r="S7">
-        <v>0.2786325925374939</v>
+        <v>0.0003985853281147807</v>
       </c>
       <c r="T7">
-        <v>0.2786325925374938</v>
+        <v>0.0003985853281147807</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>1007.44806</v>
       </c>
       <c r="I8">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J8">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1761233333333333</v>
+        <v>15.025588</v>
       </c>
       <c r="N8">
-        <v>0.52837</v>
+        <v>45.076764</v>
       </c>
       <c r="O8">
-        <v>0.01603921708027116</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P8">
-        <v>0.01603921708027115</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q8">
-        <v>59.14503682913334</v>
+        <v>5045.83316031976</v>
       </c>
       <c r="R8">
-        <v>532.3053314622</v>
+        <v>45412.49844287784</v>
       </c>
       <c r="S8">
-        <v>0.006472376494424822</v>
+        <v>0.1979639950601418</v>
       </c>
       <c r="T8">
-        <v>0.006472376494424821</v>
+        <v>0.1979639950601418</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>1007.44806</v>
       </c>
       <c r="I9">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J9">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.025778</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N9">
-        <v>9.077334</v>
+        <v>0.52837</v>
       </c>
       <c r="O9">
-        <v>0.2755518491514017</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P9">
-        <v>0.2755518491514016</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q9">
-        <v>1016.10472536356</v>
+        <v>59.14503682913334</v>
       </c>
       <c r="R9">
-        <v>9144.94252827204</v>
+        <v>532.3053314622</v>
       </c>
       <c r="S9">
-        <v>0.1111946613427016</v>
+        <v>0.002320446873025914</v>
       </c>
       <c r="T9">
-        <v>0.1111946613427016</v>
+        <v>0.002320446873025915</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>1007.44806</v>
       </c>
       <c r="I10">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J10">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.116695</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N10">
-        <v>0.350085</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O10">
-        <v>0.01062719176248979</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P10">
-        <v>0.01062719176248978</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q10">
-        <v>39.1880504539</v>
+        <v>9.584636965493335</v>
       </c>
       <c r="R10">
-        <v>352.6924540851001</v>
+        <v>86.26173268944001</v>
       </c>
       <c r="S10">
-        <v>0.004288437884533025</v>
+        <v>0.0003760356247628952</v>
       </c>
       <c r="T10">
-        <v>0.004288437884533024</v>
+        <v>0.0003760356247628953</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>1007.44806</v>
       </c>
       <c r="I11">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J11">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.08017533333333333</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N11">
-        <v>0.240526</v>
+        <v>19.037629</v>
       </c>
       <c r="O11">
-        <v>0.007301415158788918</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P11">
-        <v>0.007301415158788916</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q11">
-        <v>26.92416134217334</v>
+        <v>2131.046933672194</v>
       </c>
       <c r="R11">
-        <v>242.31745207956</v>
+        <v>19179.42240304974</v>
       </c>
       <c r="S11">
-        <v>0.002946372482726167</v>
+        <v>0.08360771179831837</v>
       </c>
       <c r="T11">
-        <v>0.002946372482726166</v>
+        <v>0.08360771179831838</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>149.4350406666667</v>
+        <v>335.81602</v>
       </c>
       <c r="H12">
-        <v>448.305122</v>
+        <v>1007.44806</v>
       </c>
       <c r="I12">
-        <v>0.1795691151442488</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J12">
-        <v>0.1795691151442488</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>7.582021999999999</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N12">
-        <v>22.746066</v>
+        <v>0.458717</v>
       </c>
       <c r="O12">
-        <v>0.6904803268470485</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P12">
-        <v>0.6904803268470484</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q12">
-        <v>1133.019765905561</v>
+        <v>51.34817241544667</v>
       </c>
       <c r="R12">
-        <v>10197.17789315005</v>
+        <v>462.13355173902</v>
       </c>
       <c r="S12">
-        <v>0.1239889413164362</v>
+        <v>0.002014551220269562</v>
       </c>
       <c r="T12">
-        <v>0.1239889413164362</v>
+        <v>0.002014551220269562</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>149.4350406666667</v>
+        <v>335.81602</v>
       </c>
       <c r="H13">
-        <v>448.305122</v>
+        <v>1007.44806</v>
       </c>
       <c r="I13">
-        <v>0.1795691151442488</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J13">
-        <v>0.1795691151442488</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1761233333333333</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N13">
-        <v>0.52837</v>
+        <v>0.256512</v>
       </c>
       <c r="O13">
-        <v>0.01603921708027116</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P13">
-        <v>0.01603921708027115</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q13">
-        <v>26.31899747901555</v>
+        <v>28.71361297408001</v>
       </c>
       <c r="R13">
-        <v>236.87097731114</v>
+        <v>258.42251676672</v>
       </c>
       <c r="S13">
-        <v>0.002880148018710812</v>
+        <v>0.001126525859328924</v>
       </c>
       <c r="T13">
-        <v>0.002880148018710812</v>
+        <v>0.001126525859328924</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H14">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I14">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J14">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.025778</v>
+        <v>15.025588</v>
       </c>
       <c r="N14">
-        <v>9.077334</v>
+        <v>45.076764</v>
       </c>
       <c r="O14">
-        <v>0.2755518491514017</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P14">
-        <v>0.2755518491514016</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q14">
-        <v>452.1572584783053</v>
+        <v>3696.871114700678</v>
       </c>
       <c r="R14">
-        <v>4069.415326304748</v>
+        <v>33271.84003230611</v>
       </c>
       <c r="S14">
-        <v>0.04948060172847872</v>
+        <v>0.1450399471872764</v>
       </c>
       <c r="T14">
-        <v>0.04948060172847871</v>
+        <v>0.1450399471872764</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H15">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I15">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J15">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.116695</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N15">
-        <v>0.350085</v>
+        <v>0.52837</v>
       </c>
       <c r="O15">
-        <v>0.01062719176248979</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P15">
-        <v>0.01062719176248978</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q15">
-        <v>17.43832207059667</v>
+        <v>43.33309708909889</v>
       </c>
       <c r="R15">
-        <v>156.94489863537</v>
+        <v>389.99787380189</v>
       </c>
       <c r="S15">
-        <v>0.00190831542125854</v>
+        <v>0.001700094463199293</v>
       </c>
       <c r="T15">
-        <v>0.00190831542125854</v>
+        <v>0.001700094463199293</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H16">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I16">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J16">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.08017533333333333</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N16">
-        <v>0.240526</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O16">
-        <v>0.007301415158788918</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P16">
-        <v>0.007301415158788916</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q16">
-        <v>11.98100419713022</v>
+        <v>7.022263007280889</v>
       </c>
       <c r="R16">
-        <v>107.829037774172</v>
+        <v>63.20036706552801</v>
       </c>
       <c r="S16">
-        <v>0.00131110865936453</v>
+        <v>0.0002755055894864892</v>
       </c>
       <c r="T16">
-        <v>0.00131110865936453</v>
+        <v>0.0002755055894864892</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>59.73425133333333</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H17">
-        <v>179.202754</v>
+        <v>738.115097</v>
       </c>
       <c r="I17">
-        <v>0.07177986239290053</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J17">
-        <v>0.07177986239290053</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.582021999999999</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N17">
-        <v>22.746066</v>
+        <v>19.037629</v>
       </c>
       <c r="O17">
-        <v>0.6904803268470485</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P17">
-        <v>0.6904803268470484</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q17">
-        <v>452.9064077628626</v>
+        <v>1561.329041776113</v>
       </c>
       <c r="R17">
-        <v>4076.157669865764</v>
+        <v>14051.96137598501</v>
       </c>
       <c r="S17">
-        <v>0.04956258284608613</v>
+        <v>0.06125587685777448</v>
       </c>
       <c r="T17">
-        <v>0.04956258284608612</v>
+        <v>0.06125587685777449</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>59.73425133333333</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H18">
-        <v>179.202754</v>
+        <v>738.115097</v>
       </c>
       <c r="I18">
-        <v>0.07177986239290053</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J18">
-        <v>0.07177986239290053</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,33 +1553,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.1761233333333333</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N18">
-        <v>0.52837</v>
+        <v>0.458717</v>
       </c>
       <c r="O18">
-        <v>0.01603921708027116</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P18">
-        <v>0.01603921708027115</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q18">
-        <v>10.52059545899778</v>
+        <v>37.62066032783878</v>
       </c>
       <c r="R18">
-        <v>94.68535913098</v>
+        <v>338.585942950549</v>
       </c>
       <c r="S18">
-        <v>0.001151292794911723</v>
+        <v>0.001475977500379261</v>
       </c>
       <c r="T18">
-        <v>0.001151292794911723</v>
+        <v>0.001475977500379261</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>59.73425133333333</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H19">
-        <v>179.202754</v>
+        <v>738.115097</v>
       </c>
       <c r="I19">
-        <v>0.07177986239290053</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J19">
-        <v>0.07177986239290053</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>3.025778</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N19">
-        <v>9.077334</v>
+        <v>0.256512</v>
       </c>
       <c r="O19">
-        <v>0.2755518491514017</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P19">
-        <v>0.2755518491514016</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q19">
-        <v>180.7425835308707</v>
+        <v>21.03726441796267</v>
       </c>
       <c r="R19">
-        <v>1626.683251777836</v>
+        <v>189.335379761664</v>
       </c>
       <c r="S19">
-        <v>0.0197790738141969</v>
+        <v>0.0008253584248617015</v>
       </c>
       <c r="T19">
-        <v>0.0197790738141969</v>
+        <v>0.0008253584248617014</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H20">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I20">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J20">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.116695</v>
+        <v>15.025588</v>
       </c>
       <c r="N20">
-        <v>0.350085</v>
+        <v>45.076764</v>
       </c>
       <c r="O20">
-        <v>0.01062719176248979</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P20">
-        <v>0.01062719176248978</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q20">
-        <v>6.970688459343334</v>
+        <v>988.8725620411601</v>
       </c>
       <c r="R20">
-        <v>62.73619613409001</v>
+        <v>8899.85305837044</v>
       </c>
       <c r="S20">
-        <v>0.000762818362334483</v>
+        <v>0.03879659845404407</v>
       </c>
       <c r="T20">
-        <v>0.0007628183623344828</v>
+        <v>0.03879659845404408</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H21">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I21">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J21">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.08017533333333333</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N21">
-        <v>0.240526</v>
+        <v>0.52837</v>
       </c>
       <c r="O21">
-        <v>0.007301415158788918</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P21">
-        <v>0.007301415158788916</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q21">
-        <v>4.789213512067112</v>
+        <v>11.59112920363333</v>
       </c>
       <c r="R21">
-        <v>43.102921608604</v>
+        <v>104.3201628327</v>
       </c>
       <c r="S21">
-        <v>0.0005240945753713065</v>
+        <v>0.0004547566618837872</v>
       </c>
       <c r="T21">
-        <v>0.0005240945753713064</v>
+        <v>0.0004547566618837872</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>108.3486913333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H22">
-        <v>325.046074</v>
+        <v>197.43771</v>
       </c>
       <c r="I22">
-        <v>0.1301975664005284</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J22">
-        <v>0.1301975664005284</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>7.582021999999999</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N22">
-        <v>22.746066</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O22">
-        <v>0.6904803268470485</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P22">
-        <v>0.6904803268470484</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q22">
-        <v>821.5021613605425</v>
+        <v>1.878378497893334</v>
       </c>
       <c r="R22">
-        <v>7393.519452244883</v>
+        <v>16.90540648104</v>
       </c>
       <c r="S22">
-        <v>0.08989885820292717</v>
+        <v>7.369472986191002E-05</v>
       </c>
       <c r="T22">
-        <v>0.08989885820292716</v>
+        <v>7.369472986191003E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>108.3486913333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H23">
-        <v>325.046074</v>
+        <v>197.43771</v>
       </c>
       <c r="I23">
-        <v>0.1301975664005284</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J23">
-        <v>0.1301975664005284</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.1761233333333333</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N23">
-        <v>0.52837</v>
+        <v>19.037629</v>
       </c>
       <c r="O23">
-        <v>0.01603921708027116</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P23">
-        <v>0.01603921708027115</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q23">
-        <v>19.08273267993111</v>
+        <v>417.6384303988434</v>
       </c>
       <c r="R23">
-        <v>171.74459411938</v>
+        <v>3758.745873589591</v>
       </c>
       <c r="S23">
-        <v>0.002088267030821093</v>
+        <v>0.0163852766323258</v>
       </c>
       <c r="T23">
-        <v>0.002088267030821093</v>
+        <v>0.0163852766323258</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>108.3486913333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H24">
-        <v>325.046074</v>
+        <v>197.43771</v>
       </c>
       <c r="I24">
-        <v>0.1301975664005284</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J24">
-        <v>0.1301975664005284</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>3.025778</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N24">
-        <v>9.077334</v>
+        <v>0.458717</v>
       </c>
       <c r="O24">
-        <v>0.2755518491514017</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P24">
-        <v>0.2755518491514016</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q24">
-        <v>327.8390865651907</v>
+        <v>10.06311489089667</v>
       </c>
       <c r="R24">
-        <v>2950.551779086716</v>
+        <v>90.56803401807001</v>
       </c>
       <c r="S24">
-        <v>0.03587618017667802</v>
+        <v>0.000394807827222108</v>
       </c>
       <c r="T24">
-        <v>0.03587618017667801</v>
+        <v>0.0003948078272221081</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>108.3486913333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H25">
-        <v>325.046074</v>
+        <v>197.43771</v>
       </c>
       <c r="I25">
-        <v>0.1301975664005284</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J25">
-        <v>0.1301975664005284</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.116695</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N25">
-        <v>0.350085</v>
+        <v>0.256512</v>
       </c>
       <c r="O25">
-        <v>0.01062719176248979</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P25">
-        <v>0.01062719176248978</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q25">
-        <v>12.64375053514333</v>
+        <v>5.627237985280002</v>
       </c>
       <c r="R25">
-        <v>113.79375481629</v>
+        <v>50.64514186752</v>
       </c>
       <c r="S25">
-        <v>0.001383634505147913</v>
+        <v>0.0002207743453510495</v>
       </c>
       <c r="T25">
-        <v>0.001383634505147912</v>
+        <v>0.0002207743453510495</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H26">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I26">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J26">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.08017533333333333</v>
+        <v>15.025588</v>
       </c>
       <c r="N26">
-        <v>0.240526</v>
+        <v>45.076764</v>
       </c>
       <c r="O26">
-        <v>0.007301415158788918</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P26">
-        <v>0.007301415158788916</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q26">
-        <v>8.686892443880444</v>
+        <v>1935.225700134332</v>
       </c>
       <c r="R26">
-        <v>78.18203199492399</v>
+        <v>17417.03130120899</v>
       </c>
       <c r="S26">
-        <v>0.000950626484954245</v>
+        <v>0.07592502541589673</v>
       </c>
       <c r="T26">
-        <v>0.0009506264849542446</v>
+        <v>0.07592502541589674</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>132.544937</v>
+        <v>128.795339</v>
       </c>
       <c r="H27">
-        <v>397.634811</v>
+        <v>386.386017</v>
       </c>
       <c r="I27">
-        <v>0.1592730657264732</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J27">
-        <v>0.1592730657264732</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>7.582021999999999</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N27">
-        <v>22.746066</v>
+        <v>0.52837</v>
       </c>
       <c r="O27">
-        <v>0.6904803268470485</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P27">
-        <v>0.6904803268470484</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q27">
-        <v>1004.958628322614</v>
+        <v>22.68386442247667</v>
       </c>
       <c r="R27">
-        <v>9044.627654903526</v>
+        <v>204.15477980229</v>
       </c>
       <c r="S27">
-        <v>0.1099749184807467</v>
+        <v>0.0008899597513032958</v>
       </c>
       <c r="T27">
-        <v>0.1099749184807467</v>
+        <v>0.0008899597513032959</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>132.544937</v>
+        <v>128.795339</v>
       </c>
       <c r="H28">
-        <v>397.634811</v>
+        <v>386.386017</v>
       </c>
       <c r="I28">
-        <v>0.1592730657264732</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J28">
-        <v>0.1592730657264732</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.1761233333333333</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N28">
-        <v>0.52837</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O28">
-        <v>0.01603921708027116</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P28">
-        <v>0.01603921708027115</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q28">
-        <v>23.34425612089667</v>
+        <v>3.675990702178667</v>
       </c>
       <c r="R28">
-        <v>210.09830508807</v>
+        <v>33.08391631960801</v>
       </c>
       <c r="S28">
-        <v>0.0025546152762272</v>
+        <v>0.000144220742558422</v>
       </c>
       <c r="T28">
-        <v>0.002554615276227199</v>
+        <v>0.000144220742558422</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>132.544937</v>
+        <v>128.795339</v>
       </c>
       <c r="H29">
-        <v>397.634811</v>
+        <v>386.386017</v>
       </c>
       <c r="I29">
-        <v>0.1592730657264732</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J29">
-        <v>0.1592730657264732</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.025778</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N29">
-        <v>9.077334</v>
+        <v>19.037629</v>
       </c>
       <c r="O29">
-        <v>0.2755518491514017</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P29">
-        <v>0.2755518491514016</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q29">
-        <v>401.051554385986</v>
+        <v>817.3192936037439</v>
       </c>
       <c r="R29">
-        <v>3609.463989473874</v>
+        <v>7355.873642433695</v>
       </c>
       <c r="S29">
-        <v>0.04388798778094245</v>
+        <v>0.03206602110309899</v>
       </c>
       <c r="T29">
-        <v>0.04388798778094243</v>
+        <v>0.03206602110309899</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>132.544937</v>
+        <v>128.795339</v>
       </c>
       <c r="H30">
-        <v>397.634811</v>
+        <v>386.386017</v>
       </c>
       <c r="I30">
-        <v>0.1592730657264732</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J30">
-        <v>0.1592730657264732</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,33 +2297,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.116695</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N30">
-        <v>0.350085</v>
+        <v>0.458717</v>
       </c>
       <c r="O30">
-        <v>0.01062719176248979</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P30">
-        <v>0.01062719176248978</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q30">
-        <v>15.467331423215</v>
+        <v>19.69353717335434</v>
       </c>
       <c r="R30">
-        <v>139.205982808935</v>
+        <v>177.241834560189</v>
       </c>
       <c r="S30">
-        <v>0.001692625412074871</v>
+        <v>0.0007726397547903817</v>
       </c>
       <c r="T30">
-        <v>0.00169262541207487</v>
+        <v>0.0007726397547903818</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>132.544937</v>
+        <v>128.795339</v>
       </c>
       <c r="H31">
-        <v>397.634811</v>
+        <v>386.386017</v>
       </c>
       <c r="I31">
-        <v>0.1592730657264732</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J31">
-        <v>0.1592730657264732</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,400 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.08017533333333333</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N31">
-        <v>0.240526</v>
+        <v>0.256512</v>
       </c>
       <c r="O31">
-        <v>0.007301415158788918</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P31">
-        <v>0.007301415158788916</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q31">
-        <v>10.62683450562067</v>
+        <v>11.012516665856</v>
       </c>
       <c r="R31">
-        <v>95.64151055058601</v>
+        <v>99.11264999270402</v>
       </c>
       <c r="S31">
-        <v>0.001162918776482055</v>
+        <v>0.0004320558618511859</v>
       </c>
       <c r="T31">
-        <v>0.001162918776482055</v>
+        <v>0.0004320558618511858</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>273.1443633333333</v>
+      </c>
+      <c r="H32">
+        <v>819.43309</v>
+      </c>
+      <c r="I32">
+        <v>0.2337715189904279</v>
+      </c>
+      <c r="J32">
+        <v>0.2337715189904279</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>15.025588</v>
+      </c>
+      <c r="N32">
+        <v>45.076764</v>
+      </c>
+      <c r="O32">
+        <v>0.6887877955888012</v>
+      </c>
+      <c r="P32">
+        <v>0.6887877955888012</v>
+      </c>
+      <c r="Q32">
+        <v>4104.154667968973</v>
+      </c>
+      <c r="R32">
+        <v>36937.39201172076</v>
+      </c>
+      <c r="S32">
+        <v>0.1610189692368624</v>
+      </c>
+      <c r="T32">
+        <v>0.1610189692368624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>273.1443633333333</v>
+      </c>
+      <c r="H33">
+        <v>819.43309</v>
+      </c>
+      <c r="I33">
+        <v>0.2337715189904279</v>
+      </c>
+      <c r="J33">
+        <v>0.2337715189904279</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.52837</v>
+      </c>
+      <c r="O33">
+        <v>0.008073667567513385</v>
+      </c>
+      <c r="P33">
+        <v>0.008073667567513385</v>
+      </c>
+      <c r="Q33">
+        <v>48.10709575147778</v>
+      </c>
+      <c r="R33">
+        <v>432.9638617633</v>
+      </c>
+      <c r="S33">
+        <v>0.001887393531081357</v>
+      </c>
+      <c r="T33">
+        <v>0.001887393531081357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>273.1443633333333</v>
+      </c>
+      <c r="H34">
+        <v>819.43309</v>
+      </c>
+      <c r="I34">
+        <v>0.2337715189904279</v>
+      </c>
+      <c r="J34">
+        <v>0.2337715189904279</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.02854133333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.08562400000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.001308362911976013</v>
+      </c>
+      <c r="P34">
+        <v>0.001308362911976013</v>
+      </c>
+      <c r="Q34">
+        <v>7.795904322017778</v>
+      </c>
+      <c r="R34">
+        <v>70.16313889816</v>
+      </c>
+      <c r="S34">
+        <v>0.0003058579853233721</v>
+      </c>
+      <c r="T34">
+        <v>0.0003058579853233721</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>273.1443633333333</v>
+      </c>
+      <c r="H35">
+        <v>819.43309</v>
+      </c>
+      <c r="I35">
+        <v>0.2337715189904279</v>
+      </c>
+      <c r="J35">
+        <v>0.2337715189904279</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.345876333333334</v>
+      </c>
+      <c r="N35">
+        <v>19.037629</v>
+      </c>
+      <c r="O35">
+        <v>0.2909012393202723</v>
+      </c>
+      <c r="P35">
+        <v>0.2909012393202723</v>
+      </c>
+      <c r="Q35">
+        <v>1733.340350860401</v>
+      </c>
+      <c r="R35">
+        <v>15600.06315774361</v>
+      </c>
+      <c r="S35">
+        <v>0.06800442459209805</v>
+      </c>
+      <c r="T35">
+        <v>0.06800442459209806</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>273.1443633333333</v>
+      </c>
+      <c r="H36">
+        <v>819.43309</v>
+      </c>
+      <c r="I36">
+        <v>0.2337715189904279</v>
+      </c>
+      <c r="J36">
+        <v>0.2337715189904279</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.1529056666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.458717</v>
+      </c>
+      <c r="O36">
+        <v>0.007009346794040233</v>
+      </c>
+      <c r="P36">
+        <v>0.007009346794040233</v>
+      </c>
+      <c r="Q36">
+        <v>41.76532097172555</v>
+      </c>
+      <c r="R36">
+        <v>375.88788874553</v>
+      </c>
+      <c r="S36">
+        <v>0.001638585647173471</v>
+      </c>
+      <c r="T36">
+        <v>0.001638585647173471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>273.1443633333333</v>
+      </c>
+      <c r="H37">
+        <v>819.43309</v>
+      </c>
+      <c r="I37">
+        <v>0.2337715189904279</v>
+      </c>
+      <c r="J37">
+        <v>0.2337715189904279</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.08550400000000001</v>
+      </c>
+      <c r="N37">
+        <v>0.256512</v>
+      </c>
+      <c r="O37">
+        <v>0.003919587817396888</v>
+      </c>
+      <c r="P37">
+        <v>0.003919587817396888</v>
+      </c>
+      <c r="Q37">
+        <v>23.35493564245333</v>
+      </c>
+      <c r="R37">
+        <v>210.19442078208</v>
+      </c>
+      <c r="S37">
+        <v>0.0009162879978892464</v>
+      </c>
+      <c r="T37">
+        <v>0.0009162879978892463</v>
       </c>
     </row>
   </sheetData>
